--- a/DataTable.xlsx
+++ b/DataTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterData" sheetId="1" r:id="rId1"/>
@@ -23,174 +23,174 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="119">
   <si>
     <t>번호</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>몬스터 번호</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>몬스터 키값</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>공격력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>체력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>속도</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>No.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Monster_Number</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Monster_Key</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>HP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Speed</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Damage</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>float</t>
   </si>
   <si>
     <t>float</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Spawn_Pos_X</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>스폰 위치 X좌표</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>스폰 위치 Y좌표</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>스폰 위치 Z좌표</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Spawn_Pos_Y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Spawn_Pos_Z</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Spawn_Dir_X</t>
   </si>
   <si>
     <t>Spawn_Dir_X</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>스폰 방향 X좌표</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>스폰 방향 Y좌표</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>스폰 방향 Z좌표</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Monster_Ray</t>
   </si>
   <si>
     <t>Monster_Ray</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Monster_Bee</t>
   </si>
   <si>
     <t>Monster_Bee</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>점수</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Point</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>한글 이름</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>영어 이름</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>자료형</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>설명</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>몬스터 번호</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>몬스터 키값</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>체력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>속도</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>공격력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>점수</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Monster_Number</t>
@@ -206,101 +206,101 @@
   </si>
   <si>
     <t>Damage</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Point</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>float</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>몬스터 고유의 번호
 1001: 가오리 몬스터, 2001: 벌 몬스터</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>몬스터의 string 키값, string 테이블로 연결
 모든 몬스터는 Monster_ 로 시작</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>몬스터의 체력, 공격을 당하면 줄어들고 0이 되면 소멸</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>몬스터의 이동속도</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>몬스터의 공격력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>몬스터를 쓰러뜨렸을 때 플레이어가 얻을 수 있는 점수</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>몬스터의 최초 스폰 좌표 ( X좌표 )</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>몬스터의 최초 스폰 좌표 ( Z좌표 )</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>몬스터의 최초 스폰 좌표 ( Y좌표 )</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>몬스터 스폰 시 바라보는 방향 ( X좌표 )</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>몬스터 스폰 시 바라보는 방향 ( Z좌표 )</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>몬스터 스폰 시 바라보는 방향 ( Y좌표 )</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>키값</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>내용</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>번역 현황</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Monster_Ray</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>가오리 몬스터</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>벌 몬스터</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>National_Code</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>String_Key</t>
@@ -313,33 +313,33 @@
   </si>
   <si>
     <t>한글 이름</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>영어 이름</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>국가 코드</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>자료형</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>설명</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>국가 별 코드
 한국: 1,  미국: 2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>string 키값
 고유의 값으로 다른 값들과 구분</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>국가 별로 번역한 내용</t>
@@ -378,31 +378,31 @@
       </rPr>
       <t>번역되지 않았다면 -1</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Notice_Create_Monster</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Notice_Remove_Monster</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>가 생성되었습니다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>가 쓰러졌습니다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>구조물 번호</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Structure_Number</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -430,7 +430,7 @@
       </rPr>
       <t>길이</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -447,7 +447,7 @@
       </rPr>
       <t>길이</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -464,7 +464,7 @@
       </rPr>
       <t>길이</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -492,81 +492,139 @@
       </rPr>
       <t>_X</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Length_Y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Length_Z</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>String_Key</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Building_01</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Building_02</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>BurstedTank</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Cactus</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Rock_01</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Rock_02</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Helipad</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>OilStorage</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>PumpJack</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Rader</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Rock_03</t>
   </si>
   <si>
     <t>Tree_01</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Tree_02</t>
+  </si>
+  <si>
+    <t>Rock_01</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>string 키값</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트 고유의 번호
+1000번대 인공물, 2000번대 자연물
+3000번대 기타(ex 인공물 중 건물이 아닌 것)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트의 x축 길이의 절반</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트의 z축 길이의 절반</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트의 y축 길이의 절반</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트의 스폰 위치 x값(월드좌표)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트의 스폰 위치 y값(월드좌표)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트의 스폰 위치 z값(월드좌표)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -698,58 +756,58 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -758,6 +816,36 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -770,34 +858,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1107,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M10"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1183,16 +1265,16 @@
       <c r="G3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="29" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1218,10 +1300,10 @@
       <c r="G4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="20"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="30"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -1245,16 +1327,16 @@
       <c r="G5" s="1">
         <v>10</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="K5" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="L5" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="29" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1280,10 +1362,10 @@
       <c r="G6" s="1">
         <v>7</v>
       </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="20"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="30"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J7" s="7" t="s">
@@ -1352,7 +1434,7 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="J5:J6"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -1450,16 +1532,16 @@
       <c r="I3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="24" t="s">
+      <c r="N3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="O3" s="29" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1491,10 +1573,10 @@
       <c r="I4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="20"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="30"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -1524,16 +1606,16 @@
       <c r="I5" s="1">
         <v>0</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="L5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="M5" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="24" t="s">
+      <c r="N5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="O5" s="29" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1565,10 +1647,10 @@
       <c r="I6" s="1">
         <v>0</v>
       </c>
-      <c r="L6" s="23"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="20"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="30"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -1719,7 +1801,7 @@
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="L5:L6"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -1791,16 +1873,16 @@
       <c r="E3" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="29" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1820,10 +1902,10 @@
       <c r="E4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="19"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="29"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
@@ -1842,16 +1924,16 @@
         <f>IF(COUNTBLANK(D5) &gt; 0, -1, 1)</f>
         <v>1</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="29" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1872,10 +1954,10 @@
         <f>IF(COUNTBLANK(D6) &gt; 0, -1, 1)</f>
         <v>1</v>
       </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="19"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="29"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -1924,24 +2006,24 @@
         <f>IF(COUNTBLANK(D8) &gt; 0, -1, 1)</f>
         <v>1</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="26" t="s">
+      <c r="K8" s="36" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H9" s="23"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="20"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1958,7 +2040,7 @@
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="H8:H9"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="E5:E8">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>1</formula>
@@ -1973,10 +2055,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F20"/>
+  <dimension ref="A2:L20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1986,49 +2068,77 @@
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="24" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I2" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="25" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I3" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>12</v>
       </c>
@@ -2047,8 +2157,12 @@
       <c r="F4" s="16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I4" s="37"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="29"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>1</v>
       </c>
@@ -2065,10 +2179,14 @@
         <v>5</v>
       </c>
       <c r="F5" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="I5" s="37"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="29"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>2</v>
       </c>
@@ -2087,8 +2205,12 @@
       <c r="F6" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I6" s="37"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="29"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>3</v>
       </c>
@@ -2107,8 +2229,20 @@
       <c r="F7" s="13">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I7" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>4</v>
       </c>
@@ -2127,8 +2261,20 @@
       <c r="F8" s="13">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I8" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>5</v>
       </c>
@@ -2147,8 +2293,20 @@
       <c r="F9" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I9" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>6</v>
       </c>
@@ -2167,8 +2325,20 @@
       <c r="F10" s="13">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I10" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>7</v>
       </c>
@@ -2188,7 +2358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>8</v>
       </c>
@@ -2208,7 +2378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>9</v>
       </c>
@@ -2228,7 +2398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>10</v>
       </c>
@@ -2248,7 +2418,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>11</v>
       </c>
@@ -2268,7 +2438,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>12</v>
       </c>
@@ -2309,21 +2479,27 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="27"/>
+      <c r="A20" s="23"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <mergeCells count="4">
+    <mergeCell ref="L3:L6"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="K3:K6"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -2331,10 +2507,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F58"/>
+  <dimension ref="A2:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2343,16 +2519,20 @@
     <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.625" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="39.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="24" t="s">
         <v>64</v>
       </c>
       <c r="D2" s="12" t="s">
@@ -2364,15 +2544,27 @@
       <c r="F2" s="12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I2" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="25" t="s">
         <v>95</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -2384,8 +2576,20 @@
       <c r="F3" s="11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I3" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>12</v>
       </c>
@@ -2404,8 +2608,12 @@
       <c r="F4" s="16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I4" s="37"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="29"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>1</v>
       </c>
@@ -2421,11 +2629,15 @@
       <c r="E5" s="13">
         <v>0</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="26">
         <v>-26.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I5" s="37"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="29"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>2</v>
       </c>
@@ -2438,14 +2650,18 @@
       <c r="D6" s="13">
         <v>40.9</v>
       </c>
-      <c r="E6" s="30">
-        <v>0</v>
-      </c>
-      <c r="F6" s="30">
+      <c r="E6" s="26">
+        <v>0</v>
+      </c>
+      <c r="F6" s="26">
         <v>-34.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I6" s="37"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="29"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>3</v>
       </c>
@@ -2464,8 +2680,20 @@
       <c r="F7" s="13">
         <v>-14.7</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I7" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>4</v>
       </c>
@@ -2484,8 +2712,20 @@
       <c r="F8" s="13">
         <v>-1.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I8" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>5</v>
       </c>
@@ -2501,11 +2741,23 @@
       <c r="E9" s="13">
         <v>0</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="26">
         <v>-30.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>6</v>
       </c>
@@ -2524,8 +2776,20 @@
       <c r="F10" s="13">
         <v>-37.299999999999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I10" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>7</v>
       </c>
@@ -2545,7 +2809,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>8</v>
       </c>
@@ -2565,7 +2829,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>9</v>
       </c>
@@ -2585,7 +2849,7 @@
         <v>37.9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>10</v>
       </c>
@@ -2605,7 +2869,7 @@
         <v>-29.3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>11</v>
       </c>
@@ -2625,7 +2889,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>12</v>
       </c>
@@ -3276,7 +3540,7 @@
         <v>96</v>
       </c>
       <c r="D48" s="13">
-        <v>26</v>
+        <v>-26</v>
       </c>
       <c r="E48" s="13">
         <v>0</v>
@@ -3296,7 +3560,7 @@
         <v>96</v>
       </c>
       <c r="D49" s="13">
-        <v>26</v>
+        <v>-26</v>
       </c>
       <c r="E49" s="13">
         <v>0</v>
@@ -3485,8 +3749,35 @@
         <v>-18.600000000000001</v>
       </c>
     </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="19">
+        <v>55</v>
+      </c>
+      <c r="B59" s="19">
+        <v>2101</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D59" s="19">
+        <v>-15.5</v>
+      </c>
+      <c r="E59" s="19">
+        <v>0</v>
+      </c>
+      <c r="F59" s="19">
+        <v>-7.8</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <mergeCells count="4">
+    <mergeCell ref="L3:L6"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="K3:K6"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DataTable.xlsx
+++ b/DataTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterData" sheetId="1" r:id="rId1"/>
@@ -870,11 +870,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1189,7 +1189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -1444,8 +1444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O12"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1592,7 +1592,7 @@
         <v>-30</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="F5" s="1">
         <v>-30</v>
@@ -1633,7 +1633,7 @@
         <v>-10</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="F6" s="1">
         <v>5</v>
@@ -1666,7 +1666,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="F7" s="1">
         <v>-25</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="F8" s="1">
         <v>20</v>
@@ -1873,7 +1873,7 @@
       <c r="E3" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="36" t="s">
         <v>76</v>
       </c>
       <c r="I3" s="32" t="s">
@@ -1902,7 +1902,7 @@
       <c r="E4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="35"/>
+      <c r="H4" s="36"/>
       <c r="I4" s="32"/>
       <c r="J4" s="34"/>
       <c r="K4" s="29"/>
@@ -2015,7 +2015,7 @@
       <c r="J8" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="36" t="s">
+      <c r="K8" s="35" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2027,11 +2027,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="I3:I4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
@@ -2039,6 +2034,11 @@
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="H8:H9"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="E5:E8">

--- a/DataTable.xlsx
+++ b/DataTable.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="119">
   <si>
     <t>번호</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -766,7 +766,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -850,6 +850,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1265,16 +1268,16 @@
       <c r="G3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="K3" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="31" t="s">
+      <c r="L3" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="M3" s="29" t="s">
+      <c r="M3" s="30" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1300,10 +1303,10 @@
       <c r="G4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="33"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="30"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="31"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -1327,16 +1330,16 @@
       <c r="G5" s="1">
         <v>10</v>
       </c>
-      <c r="J5" s="33" t="s">
+      <c r="J5" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="31" t="s">
+      <c r="L5" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="M5" s="29" t="s">
+      <c r="M5" s="30" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1362,10 +1365,10 @@
       <c r="G6" s="1">
         <v>7</v>
       </c>
-      <c r="J6" s="33"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="30"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="31"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J7" s="7" t="s">
@@ -1442,10 +1445,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O12"/>
+  <dimension ref="A2:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1532,16 +1535,16 @@
       <c r="I3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="33" t="s">
+      <c r="L3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="M3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="34" t="s">
+      <c r="N3" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="29" t="s">
+      <c r="O3" s="30" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1573,10 +1576,10 @@
       <c r="I4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="33"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="30"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="31"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -1606,16 +1609,16 @@
       <c r="I5" s="1">
         <v>0</v>
       </c>
-      <c r="L5" s="33" t="s">
+      <c r="L5" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="32" t="s">
+      <c r="M5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="34" t="s">
+      <c r="N5" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="29" t="s">
+      <c r="O5" s="30" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1647,10 +1650,10 @@
       <c r="I6" s="1">
         <v>0</v>
       </c>
-      <c r="L6" s="33"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="30"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -1735,6 +1738,33 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1001</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="F9" s="1">
+        <v>30</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>30</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
       <c r="L9" s="7" t="s">
         <v>19</v>
       </c>
@@ -1749,6 +1779,33 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1001</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1">
+        <v>34</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="F10" s="1">
+        <v>22</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>90</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
       <c r="L10" s="7" t="s">
         <v>24</v>
       </c>
@@ -1763,6 +1820,33 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1001</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-30</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-23</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>180</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
       <c r="L11" s="7" t="s">
         <v>25</v>
       </c>
@@ -1777,6 +1861,33 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1001</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="F12" s="1">
+        <v>24</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>60</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
       <c r="L12" s="7" t="s">
         <v>26</v>
       </c>
@@ -1788,6 +1899,325 @@
       </c>
       <c r="O12" s="10" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1001</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="1">
+        <v>40</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="F13" s="1">
+        <v>40</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>45</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1001</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-38</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-38</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>225</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1001</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-36</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-20</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2001</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="1">
+        <v>34</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>150</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2001</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="1">
+        <v>35</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="F17" s="1">
+        <v>-6</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>270</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2001</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="1">
+        <v>28</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="F18" s="1">
+        <v>-4</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>150</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2001</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="1">
+        <v>-22</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="F19" s="1">
+        <v>26</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>270</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2001</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="1">
+        <v>-27</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="F20" s="1">
+        <v>35</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>150</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2001</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="1">
+        <v>-29</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="F21" s="1">
+        <v>19</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>270</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2001</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="1">
+        <v>-3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="F22" s="1">
+        <v>-38</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>150</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2001</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="1">
+        <v>-42</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="F23" s="1">
+        <v>42</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>270</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1873,16 +2303,16 @@
       <c r="E3" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="30" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1902,10 +2332,10 @@
       <c r="E4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="36"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="29"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="30"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
@@ -1924,16 +2354,16 @@
         <f>IF(COUNTBLANK(D5) &gt; 0, -1, 1)</f>
         <v>1</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="J5" s="34" t="s">
+      <c r="J5" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="K5" s="30" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1954,10 +2384,10 @@
         <f>IF(COUNTBLANK(D6) &gt; 0, -1, 1)</f>
         <v>1</v>
       </c>
-      <c r="H6" s="33"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="29"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -2006,24 +2436,24 @@
         <f>IF(COUNTBLANK(D8) &gt; 0, -1, 1)</f>
         <v>1</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="J8" s="34" t="s">
+      <c r="J8" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="35" t="s">
+      <c r="K8" s="36" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H9" s="33"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="30"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2125,16 +2555,16 @@
       <c r="F3" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="L3" s="30" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2157,10 +2587,10 @@
       <c r="F4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="37"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="29"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="30"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
@@ -2181,10 +2611,10 @@
       <c r="F5" s="13">
         <v>2</v>
       </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="29"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="30"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
@@ -2205,10 +2635,10 @@
       <c r="F6" s="13">
         <v>2</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="29"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="30"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
@@ -2507,10 +2937,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L59"/>
+  <dimension ref="A2:L61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2576,16 +3006,16 @@
       <c r="F3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="L3" s="30" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2608,10 +3038,10 @@
       <c r="F4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="37"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="29"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="30"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
@@ -2632,10 +3062,10 @@
       <c r="F5" s="26">
         <v>-26.5</v>
       </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="29"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="30"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
@@ -2656,10 +3086,10 @@
       <c r="F6" s="26">
         <v>-34.5</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="29"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="30"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
@@ -3767,6 +4197,46 @@
       </c>
       <c r="F59" s="19">
         <v>-7.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="29">
+        <v>56</v>
+      </c>
+      <c r="B60" s="29">
+        <v>1001</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D60" s="29">
+        <v>-35</v>
+      </c>
+      <c r="E60" s="29">
+        <v>0</v>
+      </c>
+      <c r="F60" s="29">
+        <v>-10.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="29">
+        <v>57</v>
+      </c>
+      <c r="B61" s="29">
+        <v>1001</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D61" s="29">
+        <v>-26</v>
+      </c>
+      <c r="E61" s="29">
+        <v>0</v>
+      </c>
+      <c r="F61" s="29">
+        <v>-8.5</v>
       </c>
     </row>
   </sheetData>
